--- a/CodeBook_8_03_2020.xlsx
+++ b/CodeBook_8_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C3D3A6-81BA-9D49-A19F-927EF07D8382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BF5DA7-29E4-0F4A-93A1-DB500BC29944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="2960" windowWidth="28080" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
